--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1288.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1288.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8193202260225667</v>
+        <v>1.13452935218811</v>
       </c>
       <c r="B1">
-        <v>1.494964559080383</v>
+        <v>2.288748502731323</v>
       </c>
       <c r="C1">
-        <v>5.119183806316492</v>
+        <v>11.10049343109131</v>
       </c>
       <c r="D1">
-        <v>3.818974970426929</v>
+        <v>2.117898464202881</v>
       </c>
       <c r="E1">
-        <v>1.528178235639462</v>
+        <v>1.276530027389526</v>
       </c>
     </row>
   </sheetData>
